--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>入院阶段：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9076,6 +9076,406 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">2017-01-07 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】，以及一条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者描述执行条目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述医嘱（describeOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脊柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计费项目（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>spineCTChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一次180元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脊柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>spineCTInspectItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1次0点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1次11点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctord02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立描述临嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 14:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对了该条护理医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成了针对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的描述临嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2017-01-06 11:00 </t>
     </r>
     <r>
@@ -9124,265 +9524,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的描述医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-07 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】，以及一条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者描述执行条目</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述医嘱（describeOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脊柱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计费项目（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>spineCTChargeItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）一次180元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脊柱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>spineCTInspectItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天1次0点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天1次11点</t>
+      <t>的描述长嘱</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9774,7 +9917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -10061,7 +10204,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -10183,7 +10326,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -10238,7 +10381,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -10263,12 +10406,12 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -10646,9 +10789,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B63"/>
+  <dimension ref="B1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -10967,7 +11110,22 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>229</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -11007,7 +11165,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>入院阶段：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2216,12 +2216,6 @@
     <t>2016-12-27 09:55 叫号，测试患者003为门诊就诊中状态</t>
   </si>
   <si>
-    <t>2016-12-27 10:05 患者001重新排号</t>
-  </si>
-  <si>
-    <t>2016-12-27 10:15 叫号，测试患者001为门诊就诊中状态，测试患者002为门诊执行中状态</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2016-12-28 09:00 </t>
     </r>
@@ -9525,6 +9519,444 @@
         <charset val="134"/>
       </rPr>
       <t>的描述长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立检查医嘱（脊柱CT），执行科室为CT室</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的检查临嘱收费180元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016-12-27 10:30 CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查安排员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者003安排该检查的检查时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2016-12-27 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016-12-27 14:00 CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者003的检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脊柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新排号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新排号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 14:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9949,12 +10381,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -9969,32 +10401,32 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -10009,17 +10441,17 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -10034,17 +10466,17 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -10079,12 +10511,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -10094,7 +10526,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -10104,42 +10536,42 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -10159,7 +10591,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -10174,22 +10606,22 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -10204,7 +10636,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -10239,17 +10671,17 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -10285,32 +10717,32 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -10326,7 +10758,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -10361,7 +10793,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -10376,12 +10808,12 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -10406,12 +10838,12 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -10466,7 +10898,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -10486,27 +10918,27 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -10518,10 +10950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D39"/>
+  <dimension ref="B1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10551,90 +10983,90 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -10644,71 +11076,106 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="6"/>
+      <c r="B34" s="4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="6"/>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="6"/>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="6"/>
+      <c r="B37" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="6"/>
+      <c r="B39" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10737,47 +11204,47 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -10791,8 +11258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="B37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10815,12 +11282,12 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
@@ -10830,17 +11297,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
@@ -10850,12 +11317,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
@@ -10875,12 +11342,12 @@
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
@@ -10890,22 +11357,22 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -10920,37 +11387,37 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
@@ -10965,22 +11432,22 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
@@ -11010,7 +11477,7 @@
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
@@ -11020,7 +11487,7 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
@@ -11030,102 +11497,102 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -11155,52 +11622,52 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>入院阶段：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9958,6 +9958,18 @@
       </rPr>
       <t>）处于空闲中</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-12 09:00 住院处送诊人user101创建患者ttt，指定责任医生为user002，科室为内泌五dept000，病区为内泌五和眼科一护士站dept000n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-12 09:30 患者ttt到收费处存2000元预存住院费, 【系统产生+2000元的费用条目】，【患者ttt状态为待接诊】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-12 09:50 由内泌五和眼科一护士user001接诊患者ttt，指定责任护士user003，床位bedt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10952,7 +10964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -11189,7 +11201,7 @@
   <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11604,10 +11616,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B16"/>
+  <dimension ref="B1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11690,6 +11702,21 @@
         <v>80</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/测试设计.xlsx
+++ b/doc/测试设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="数据准备" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>入院阶段：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出院医嘱（leaveHospitalOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级护理（secondNursingOrderType）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,10 +1168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查（inspectOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">2017-01-01 09:30 </t>
     </r>
@@ -7136,6 +7128,2768 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五和眼科一护士站（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼科一住院科室（deptddd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眼科一医生doctord02（眼科一医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>司马懿）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五和眼科一护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>nurse003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内泌五和眼科一护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小乔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内泌五和眼科一接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>nurse001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（内泌五和眼科一接诊护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大乔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者临时医嘱单（患者姓名，患者临嘱列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开一级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开二级护理长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-28 10:45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>核对了两条护理医嘱（001的一级护理长嘱，004的二级护理长嘱）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-04 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立了转科医嘱，转科科室为眼科一（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptddd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），立即执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对了该条转科医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前收取的二级护理费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元钱退费</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成转科申请执行条目【系统将004设置为转科中】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 09:40 责任护士003完成转科确认执行条目【系统将004设置为在病房，科室为眼科一（deptddd），责任医生是doctord02，床位号是bedd04】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成两条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目，产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-09 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开出院医嘱，出院时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2017-01-09</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 11:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送该长期组合医嘱到配液中心deptbbb（包括29号下午和30号上午的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 08:55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于配液单进行配液（上午九点），【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午十五点的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于配液单进行配液，【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-29 14:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午十五点的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于配液单进行配液，【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-30 14:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 08:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心摆药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dept000n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病区下午的配液单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 08:55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心配液岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于配液单进行配液（上午九点），【系统为患者001产生-240和-15两条药品收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-31 09:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配液中心发药岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userb03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认发送病区dept000n的液</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-05 08:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立二级护理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立二级护理医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 10:00 责任医生doctor002为患者001开立描述长嘱，执行频次为每天11点，连续执行两天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:58 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前在眼科一（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deptddd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的护理医嘱【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的二级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 09:55 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对了该条护理医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 10:02 责任护士003核对了该条护理医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脊柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计费项目（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>spineCTChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）一次180元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脊柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>spineCTInspectItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1次0点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天1次11点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctord02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立描述临嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 14:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核对了该条护理医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成了针对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的描述临嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 11:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成了针对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的描述长嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>doctor002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开立检查医嘱（脊柱CT），执行科室为CT室</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊收费部门收费员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>staff701</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的检查临嘱收费180元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016-12-27 10:30 CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查安排员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者003安排该检查的检查时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2016-12-27 14:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016-12-27 14:00 CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室检查员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>user402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认患者003的检查已完成，【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的脊柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新排号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 14:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新排号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 14:35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 10:15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊就诊中状态，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016-12-27 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叫号，测试患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为门诊执行中状态，诊室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>room901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）处于空闲中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-12 09:00 住院处送诊人user101创建患者ttt，指定责任医生为user002，科室为内泌五dept000，病区为内泌五和眼科一护士站dept000n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-12 09:30 患者ttt到收费处存2000元预存住院费, 【系统产生+2000元的费用条目】，【患者ttt状态为待接诊】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-12 09:50 由内泌五和眼科一护士user001接诊患者ttt，指定责任护士user003，床位bedt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 15:10 责任护士003核对该条手术申请医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 15:12 责任护士003发送该条手术申请医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-06 16:00 眼科手术室护士usere01安排手术时间为申请时间，手术地点为眼科第一手术室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003取消患者004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的二级护理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行条目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-06 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userd02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为患者开立眼科手术申请，申请时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2017-01-07 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，手术项目为息肉切除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>surgeryType001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 15:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士003完成患者004的术前操作执行条目，自动停止了004的二级护理长嘱，患者004的状态为手术中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 17:10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>userd02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给患者004开立一级护理医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 17:20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士003核对该条医嘱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 10:40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责任护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成患者001的一条护理执行条目【系统产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的二级护理的收费条目】，以及一条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>患者描述执行条目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 17:30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>责任护士003执行患者004当天的一级护理执行条目，【系统产生004患者-22元的一级护理的收费条目】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017-01-07 17:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手术室护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>usere01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成患者004的术后操作执行条目，确认手术项目为息肉切除surgeryType001，【系统产生患者004的-300元手术费用】，患者004的状态为在病房</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2017-01-08 09:10 </t>
     </r>
     <r>
@@ -7241,18 +9995,18 @@
         <family val="3"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元的一级护理收费条目】</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7287,26 +10041,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>完成了两条执行条目（001患者出院登记和004患者二级护理），【系统产生004患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的二级护理的收费条目】，【患者</t>
+      <t>完成了两条执行条目（001患者出院登记和004患者一级护理），【系统产生004患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元的一级护理的收费条目】，【患者</t>
     </r>
     <r>
       <rPr>
@@ -7388,7 +10142,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>--2760</t>
+      <t>-2194</t>
     </r>
     <r>
       <rPr>
@@ -7422,51 +10176,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五和眼科一护士站（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼科一住院科室（deptddd）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>眼科一医生doctord02（眼科一医生</t>
+    <t>眼科手术室（deptddd）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眼科手术室护士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>usere01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（眼科手术室护士</t>
     </r>
     <r>
       <rPr>
@@ -7485,2491 +10226,48 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>司马懿）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五和眼科一护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>nurse003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内泌五和眼科一护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小乔）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内泌五和眼科一接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>nurse001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（内泌五和眼科一接诊护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大乔）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转科医嘱（transferDeptOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者临时医嘱单（患者姓名，患者临嘱列表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开一级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:42 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开二级护理长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-28 10:45 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>核对了两条护理医嘱（001的一级护理长嘱，004的二级护理长嘱）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-04 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的一级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立了转科医嘱，转科科室为眼科一（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptddd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），立即执行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核对了该条转科医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:33 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前收取的二级护理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元钱退费</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成转科申请执行条目【系统将004设置为转科中】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-06 09:40 责任护士003完成转科确认执行条目【系统将004设置为在病房，科室为眼科一（deptddd），责任医生是doctord02，床位号是bedd04】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-09 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开出院医嘱，出院时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2017-01-09</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 11:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发送该长期组合医嘱到配液中心deptbbb（包括29号下午和30号上午的）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病区下午的配液单</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 08:55 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于配液单进行配液（上午九点），【系统为患者001产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 09:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认发送病区dept000n的液</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病区下午十五点的配液单</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于配液单进行配液，【系统为患者001产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-29 14:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认发送病区dept000n的液</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病区下午十五点的配液单</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于配液单进行配液，【系统为患者001产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-30 14:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认发送病区dept000n的液</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 08:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心摆药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>dept000n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病区下午的配液单</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 08:55 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心配液岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于配液单进行配液（上午九点），【系统为患者001产生-240和-15两条药品收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-31 09:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配液中心发药岗位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>userb03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认发送病区dept000n的液</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-05 08:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立二级护理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立二级护理医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-06 10:00 责任医生doctor002为患者001开立描述长嘱，执行频次为每天11点，连续执行两天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:58 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前在眼科一（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deptddd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）的护理医嘱【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的二级护理的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 09:55 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核对了该条护理医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-06 10:02 责任护士003核对了该条护理医嘱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-07 10:40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成两条护理执行条目【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理的收费条目，产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元的二级护理收费条目】，以及一条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>患者描述执行条目</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述医嘱（describeOrderType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脊柱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计费项目（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>spineCTChargeItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）一次180元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脊柱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>spineCTInspectItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天1次0点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天1次11点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 14:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctord02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立描述临嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 14:10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核对了该条护理医嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成了针对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的描述临嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2017-01-06 11:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>责任护士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成了针对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的描述长嘱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 10:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>医生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>doctor002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开立检查医嘱（脊柱CT），执行科室为CT室</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 10:25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊收费部门收费员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>staff701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的检查临嘱收费180元</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2016-12-27 10:30 CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室检查安排员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给患者003安排该检查的检查时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>2016-12-27 14:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2016-12-27 14:00 CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室检查员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>user402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认患者003的检查已完成，【系统产生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-180</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元的脊柱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查的收费条目】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 10:05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重新排号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 14:30 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重新排号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 14:35 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 10:15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊就诊中状态，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2016-12-27 15:00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叫号，测试患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为门诊执行中状态，诊室（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>room901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）处于空闲中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-12 09:00 住院处送诊人user101创建患者ttt，指定责任医生为user002，科室为内泌五dept000，病区为内泌五和眼科一护士站dept000n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-12 09:30 患者ttt到收费处存2000元预存住院费, 【系统产生+2000元的费用条目】，【患者ttt状态为待接诊】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-01-12 09:50 由内泌五和眼科一护士user001接诊患者ttt，指定责任护士user003，床位bedt</t>
+      <t>吕蒙）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪道探通术（surgery002ChargeItem）一次800元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息肉切除（surgery001ChargeItem）一次300元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息肉切除（surgeryType001）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪道探通术（surgeryType002）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查申请（inspectOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转科（transferDeptOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述describeOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术申请（surgeryOrderType）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院（leaveHospitalOrderType）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10359,10 +10657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10383,574 +10681,615 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
-        <v>71</v>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>72</v>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
+      <c r="B44" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>11</v>
+      <c r="A46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
-        <v>109</v>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>110</v>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>14</v>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="1" t="s">
-        <v>48</v>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>83</v>
+      <c r="B58" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="2" t="s">
-        <v>39</v>
+      <c r="B67" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>15</v>
+      <c r="B68" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
-        <v>19</v>
+      <c r="B71" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
-        <v>115</v>
+      <c r="A72" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
-        <v>50</v>
+      <c r="B81" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B89" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>27</v>
+      <c r="B92" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" s="3" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>37</v>
+      <c r="B95" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B98" s="3" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B101" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B103" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B107" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B108" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B110" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B111" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B114" s="1" t="s">
+      <c r="A114" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B118" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B119" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B121" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B124" s="1" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B116" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -10975,200 +11314,200 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
@@ -11216,47 +11555,47 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -11268,10 +11607,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B66"/>
+  <dimension ref="B1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="B55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11281,7 +11620,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
@@ -11289,17 +11628,17 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
@@ -11309,17 +11648,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
@@ -11329,282 +11668,302 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -11616,10 +11975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B20"/>
+  <dimension ref="B1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11634,91 +11993,122 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>188</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>78</v>
+      <c r="B14" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>79</v>
+      <c r="B15" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>80</v>
+      <c r="B16" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
-        <v>246</v>
+      <c r="B18" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
-        <v>248</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>